--- a/ML_Great_Learning/Logistic_Regression.xlsx
+++ b/ML_Great_Learning/Logistic_Regression.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imamahasan/Python/Machine_Learning_Practices/ML_Great_Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC37CFB8-418B-A549-B420-1C9B84804A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658B121F-4E07-D34A-8C33-8FB58279B4F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{ED663C5E-04AC-8D49-96BA-E456EA71522F}"/>
   </bookViews>
@@ -135,7 +135,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.899759405074366E-2"/>
+          <c:y val="0.1087616652085156"/>
+          <c:w val="0.89655796150481193"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1300,7 +1310,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B21"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
